--- a/data/Varios.xlsx
+++ b/data/Varios.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -26,37 +26,40 @@
     <t>Nombre</t>
   </si>
   <si>
+    <t>Adulto</t>
+  </si>
+  <si>
+    <t>Niño</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Boca</t>
+  </si>
+  <si>
+    <t>River</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>L</t>
+    <t>Belgrano</t>
   </si>
   <si>
-    <t>Adulto</t>
+    <t>L</t>
   </si>
   <si>
     <t>XL</t>
   </si>
   <si>
-    <t>Niño</t>
-  </si>
-  <si>
     <t>XXL</t>
   </si>
   <si>
-    <t>Boca</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Belgrano</t>
+    <t>Juvenil</t>
   </si>
   <si>
     <t>XXXL</t>
@@ -65,16 +68,13 @@
     <t>Talleres</t>
   </si>
   <si>
+    <t>Bebe</t>
+  </si>
+  <si>
     <t>XXXXL</t>
   </si>
   <si>
-    <t>Juvenil</t>
-  </si>
-  <si>
     <t>Ajax</t>
-  </si>
-  <si>
-    <t>Bebe</t>
   </si>
   <si>
     <t>Argentina</t>
@@ -110,6 +110,9 @@
     <t>Instituto</t>
   </si>
   <si>
+    <t>XS</t>
+  </si>
+  <si>
     <t>Chelsea</t>
   </si>
   <si>
@@ -119,9 +122,6 @@
     <t>Warriors</t>
   </si>
   <si>
-    <t>XS</t>
-  </si>
-  <si>
     <t>Lackers</t>
   </si>
   <si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Miami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union </t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -420,7 +423,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -428,7 +431,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -436,7 +439,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -444,7 +447,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1"/>
@@ -1475,7 +1478,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -1483,7 +1486,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -1491,7 +1494,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -1499,7 +1502,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -1507,7 +1510,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -1603,7 +1606,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -1611,7 +1614,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -1619,7 +1622,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
@@ -1646,7 +1649,14 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="A24" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
     <row r="25" ht="14.25" customHeight="1"/>
     <row r="26" ht="14.25" customHeight="1"/>
     <row r="27" ht="14.25" customHeight="1"/>
@@ -2657,7 +2667,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -2665,7 +2675,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -2673,7 +2683,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -2681,7 +2691,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -2689,7 +2699,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -2697,7 +2707,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -2705,7 +2715,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -2825,7 +2835,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>

--- a/data/Varios.xlsx
+++ b/data/Varios.xlsx
@@ -26,52 +26,16 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Adulto</t>
-  </si>
-  <si>
-    <t>Niño</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>Boca</t>
   </si>
   <si>
     <t>River</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Belgrano</t>
   </si>
   <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>XXL</t>
-  </si>
-  <si>
-    <t>Juvenil</t>
-  </si>
-  <si>
-    <t>XXXL</t>
-  </si>
-  <si>
     <t>Talleres</t>
-  </si>
-  <si>
-    <t>Bebe</t>
-  </si>
-  <si>
-    <t>XXXXL</t>
   </si>
   <si>
     <t>Ajax</t>
@@ -84,6 +48,42 @@
   </si>
   <si>
     <t>Borussia</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Adulto</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Niño</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>Juvenil</t>
+  </si>
+  <si>
+    <t>XXL</t>
+  </si>
+  <si>
+    <t>Bebe</t>
+  </si>
+  <si>
+    <t>XXXL</t>
+  </si>
+  <si>
+    <t>XXXXL</t>
   </si>
   <si>
     <t>Manchester City</t>
@@ -110,19 +110,19 @@
     <t>Instituto</t>
   </si>
   <si>
-    <t>XS</t>
-  </si>
-  <si>
     <t>Chelsea</t>
   </si>
   <si>
     <t>Roma</t>
   </si>
   <si>
+    <t>XS</t>
+  </si>
+  <si>
     <t>Warriors</t>
   </si>
   <si>
-    <t>Lackers</t>
+    <t>Lakers</t>
   </si>
   <si>
     <t>Spurs</t>
@@ -415,7 +415,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -423,7 +423,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -431,7 +431,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -439,7 +439,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -447,7 +447,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1"/>
@@ -1478,7 +1478,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -1486,7 +1486,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -1494,7 +1494,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -1502,7 +1502,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -1510,7 +1510,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -1518,7 +1518,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -1526,7 +1526,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -1534,7 +1534,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -1606,7 +1606,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
@@ -1614,7 +1614,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
@@ -2667,7 +2667,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -2675,7 +2675,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -2683,7 +2683,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -2691,7 +2691,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -2699,7 +2699,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -2707,7 +2707,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -2715,7 +2715,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -2835,7 +2835,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1"/>
